--- a/results_cnn_subnetwork_evaluation/pcc_subnetwork_10_15_evaluation/cnn_validation_SubCM_pcc_by_LDANOVA.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_subnetwork_10_15_evaluation/cnn_validation_SubCM_pcc_by_LDANOVA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_cnn_subnetworks_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\results_cnn_subnetwork_evaluation\pcc_subnetwork_10_15_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08093CF4-E2D2-481F-B33E-B1DE890C6299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04343106-741D-4FC5-9CAB-56D614CF8A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection_rate_1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,20 @@
     <sheet name="selection_rate_0.15" sheetId="8" r:id="rId8"/>
     <sheet name="selection_rate_0.1" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,6 +122,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
